--- a/RUTINAS/EJERCICIOS PRESUPUESTO/RESULTADOS/muestra_ejer_presupuesto_estimaciones_2012.xlsx
+++ b/RUTINAS/EJERCICIOS PRESUPUESTO/RESULTADOS/muestra_ejer_presupuesto_estimaciones_2012.xlsx
@@ -1,151 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollambo\Desktop\GRUPO ENIGHUR\ENIGHUR\RUTINAS\EJERCICIOS PRESUPUESTO\RESULTADOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
-  <si>
-    <t>nombre_dom</t>
-  </si>
-  <si>
-    <t>HouseholdsPerPSU</t>
-  </si>
-  <si>
-    <t>DEFF</t>
-  </si>
-  <si>
-    <t>PSUinSample</t>
-  </si>
-  <si>
-    <t>HouseholdsInSample</t>
-  </si>
-  <si>
-    <t>Azuay</t>
-  </si>
-  <si>
-    <t>Bolívar</t>
-  </si>
-  <si>
-    <t>Cañar</t>
-  </si>
-  <si>
-    <t>Carchi</t>
-  </si>
-  <si>
-    <t>Cotopaxi</t>
-  </si>
-  <si>
-    <t>Chimborazo</t>
-  </si>
-  <si>
-    <t>El Oro</t>
-  </si>
-  <si>
-    <t>Esmeraldas</t>
-  </si>
-  <si>
-    <t>Guayas</t>
-  </si>
-  <si>
-    <t>Imbabura</t>
-  </si>
-  <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>Los Rios</t>
-  </si>
-  <si>
-    <t>Manabí</t>
-  </si>
-  <si>
-    <t>Morona Santiago</t>
-  </si>
-  <si>
-    <t>Napo</t>
-  </si>
-  <si>
-    <t>Pastaza</t>
-  </si>
-  <si>
-    <t>Pichincha</t>
-  </si>
-  <si>
-    <t>Tungurahua</t>
-  </si>
-  <si>
-    <t>Zamora Chinchipe</t>
-  </si>
-  <si>
-    <t>Galápagos</t>
-  </si>
-  <si>
-    <t>Sucumbíos</t>
-  </si>
-  <si>
-    <t>Orellana</t>
-  </si>
-  <si>
-    <t>Santo Domingo de los Tsachilas</t>
-  </si>
-  <si>
-    <t>Santa Elena</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
-    <t>Guayaquil</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
-    <t>Machala</t>
-  </si>
-  <si>
-    <t>Ambato</t>
-  </si>
-  <si>
-    <t>Esmeraldas Ciudad</t>
-  </si>
-  <si>
-    <t>Loja Ciudad</t>
-  </si>
-  <si>
-    <t>Manta</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>NUEVO</t>
-  </si>
-  <si>
-    <t>DEFINIDO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">nombre_dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HouseholdsPerPSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSUinSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HouseholdsInSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azuay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolívar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cañar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotopaxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimborazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esmeraldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbabura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manabí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morona Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pichincha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tungurahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamora Chinchipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galápagos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucumbíos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orellana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Domingo de los Tsachilas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Elena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayaquil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esmeraldas Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loja Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Domingo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,24 +142,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,24 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -485,16 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,681 +474,569 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>281</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>3082</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D3" t="n">
         <v>103</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1124</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
         <v>3.76</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>117</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.29</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>107</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.54</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>136</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1490</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>3.03</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>144</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1579</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.82</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>248</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>2724</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D9" t="n">
         <v>297</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3263</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.73</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>442</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>4852</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.63</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>125</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1374</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
         <v>3.04</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>267</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>2933</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>157</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>1717</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
         <v>2.29</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>370</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>4064</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
         <v>8.19</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>93</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1022</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.78</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>90</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>990</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
         <v>3.99</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>90</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>984</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>11</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.75</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>370</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>4067</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
         <v>3.07</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>278</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>3052</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
         <v>5.39</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>90</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>984</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.64</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>67</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
         <v>3.14</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>99</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>1084</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
         <v>3.9</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>91</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>994</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
         <v>1.61</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>187</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>2053</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
         <v>1.81</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>84</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>914</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
         <v>1.67</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" t="n">
         <v>223</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" t="n">
         <v>2452</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26">
-        <v>162</v>
-      </c>
-      <c r="H26">
-        <f>G26-D26</f>
-        <v>-61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
         <v>1.53</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" t="n">
         <v>253</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" t="n">
         <v>2777</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27">
-        <v>210</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H34" si="0">G27-D27</f>
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" t="n">
         <v>1.23</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" t="n">
         <v>182</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" t="n">
         <v>1994</v>
       </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28">
-        <v>128</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.19</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" t="n">
         <v>171</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" t="n">
         <v>1874</v>
       </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29">
-        <v>121</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
         <v>2.13</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" t="n">
         <v>192</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" t="n">
         <v>2112</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30">
-        <v>135</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
         <v>1.27</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" t="n">
         <v>197</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" t="n">
         <v>2158</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31">
-        <v>139</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
         <v>1.42</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" t="n">
         <v>188</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" t="n">
         <v>2065</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32">
-        <v>134</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.97</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" t="n">
         <v>185</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" t="n">
         <v>2032</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33">
-        <v>132</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>-53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
         <v>1.77</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" t="n">
         <v>170</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" t="n">
         <v>1865</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34">
-        <v>120</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="2">
-        <f>SUM(D26:D34)</f>
-        <v>1761</v>
-      </c>
-      <c r="G35" s="2">
-        <f>SUM(G26:G34)</f>
-        <v>1281</v>
-      </c>
-      <c r="H35">
-        <f>SUM(H26:H34)</f>
-        <v>-480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>